--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_221.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_221.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,626 +488,656 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jaah_21</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.3071428571428572</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['Ab', 'Eb:7', 'Ab', 'Ab']]</t>
-        </is>
+          <t>isophonics_96</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_50</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.25</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D:maj', 'A:7/G', 'D:maj/F#', 'D:maj/A']]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(46.75, 47.79)]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(224.98, 238.32)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:00:11.384000', '0:00:18.318000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:37.936167', '0:00:42.951678')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_132</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_287</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.08096590909090909</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['B', 'B', 'B/7']]</t>
-        </is>
+          <t>isophonics_225</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_144</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1868131868131868</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A', 'A/2', 'A/b3']]</t>
+          <t>[['E/3', 'A:min', 'F']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(9.480113, 15.412811)]</t>
+          <t>[['A:maj', 'D:min', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(62.891179, 65.81034)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:12.579000', '0:00:17.703000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:05.140000', '0:00:08.920000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_69</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3025210084033613</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min', 'F#:min', 'G#:min/B', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:min', 'C:dim7', 'C#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(0.3, 20.7)]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(0.38, 21.84)]</t>
+          <t>[('0:01:05.200000', '0:01:07.500000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:25.015959', '0:00:36.625937')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_173</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.08076923076923077</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'G:maj', 'E:min', 'A:min/C']]</t>
-        </is>
+          <t>schubert-winterreise_29</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_75</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2077922077922078</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A', 'A', 'F#:min', 'B:min']]</t>
+          <t>[['A#:min', 'F:maj/A', 'A#:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(8.72, 16.92)]</t>
+          <t>[['F:min/C', 'C', 'F:min/C']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(17.670317, 31.045011)]</t>
+          <t>[('0:00:14', '0:00:16.380000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:45.720000', '0:00:49.900000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_187</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jaah_13</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.05330188679245283</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['C', 'C/G', 'G:7']]</t>
-        </is>
+          <t>schubert-winterreise_177</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_120</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2913752913752914</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['Eb', 'Eb', 'Bb:7']]</t>
+          <t>[['A:min', 'E:maj', 'A:min', 'A:7', 'D:min/A']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(235.32, 237.58)]</t>
+          <t>[['A#:min', 'F:maj/A', 'A#:min', 'A#:7/G#', 'D#:min/F#']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(28.19, 36.12)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+          <t>[('0:00:13.500000', '0:00:25.260000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:15.320000', '0:00:19.120000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jaah_85</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_133</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1421370967741936</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['Ab', 'Ab', 'Ab']]</t>
-        </is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_232</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5833333333333334</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D', 'D/2', 'D/3']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(83.46, 86.9)]</t>
+          <t>[['C', 'F', 'C']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(53.594164, 57.7109)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:16.179070', '0:00:21.844739')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_13</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_165</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1066176470588235</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['B:maj', 'F#:maj', 'B:maj']]</t>
-        </is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_274</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4333333333333333</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(10.2, 12.32)]</t>
+          <t>[['Ab', 'Db', 'Ab', 'Db']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(52.680839, 55.420793)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:02:12.300000', '0:02:17.480000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:03.129454', '0:00:05.822970')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>jaah_53</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.07069184385909236</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G', 'G']]</t>
-        </is>
+          <t>isophonics_101</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_33</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4642857142857143</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj/B']]</t>
+          <t>[['C#', 'F#/5', 'C#']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(41.7, 45.42)]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(19.36, 21.74)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:31.469410', '0:01:58.925813')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:01:03.600000', '0:01:06.040000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_200</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_8</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1485507246376812</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'E'], ['D', 'E', 'A']]</t>
-        </is>
+          <t>isophonics_251</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5428571428571429</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['B', 'E', 'B'], ['A', 'B', 'E']]</t>
+          <t>[['D', 'G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(13.878853, 21.111869), (60.040123, 71.429511)]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(58.91672, 63.328512), (50.046698, 55.352457)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:00:07.525011', '0:00:14.746417')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:01:57.540000', '0:02:02.700000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_160</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_72</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1142241379310345</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['Eb:7', 'Ab:maj', 'Eb/3'], ['Db:maj', 'Eb:7', 'Ab:maj'], ['Ab:maj', 'Bb:7', 'Eb:maj']]</t>
-        </is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_119</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj', 'G:maj'], ['F:maj/G', 'G:7', 'C:maj'], ['C:maj/G', 'D:7', 'G:maj']]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(26.006, 29.321), (24.398, 28.578), (40.918, 45.018)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(7.84, 9.48), (23.28, 27.94), (45.84, 49.04)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+          <t>[('0:01:47.900000', '0:01:49.300000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:34.300000', '0:00:49.840000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_195</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_144</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3736263736263736</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_110</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_45</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(45.46, 58.08)]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(0.22, 7.72)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+          <t>[('0:01:23.420000', '0:01:45.160000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:01:19.120000', '0:01:39.320000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_212</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.07307692307692308</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
-        </is>
+          <t>isophonics_64</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>isophonics_167</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7483552631578947</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>[['A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(16.82, 23.18)]</t>
+          <t>[['G/3', 'C', 'G', 'C', 'G', 'C', 'G', 'C', 'G', 'C', 'G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(46.93228, 54.037586)]</t>
+          <t>[('0:03:16.576000', '0:04:06.376000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:02:23.182222', '0:02:53.495873')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_279</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_243</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1217948717948718</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'G', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_10</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_104</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['A', 'B', 'E']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(32.808, 36.091)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(19.616133, 25.815861)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:00.800000', '0:00:41.860000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:00.240000', '0:00:35.100000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_35</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jaah_3</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.08777777777777777</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C', 'C/7'], ['D:7', 'G:7', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_117</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Eb'], ['F:7', 'Bb:7', 'Eb']]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(12.851927, 16.810929), (18.783807, 24.845034)]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(31.89, 34.57), (43.61, 45.41)]</t>
+          <t>[('0:00:01.160000', '0:00:19.200000'), ('0:00:49.080000', '0:01:08.320000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
+          <t>[('0:00:00.720000', '0:00:20.920000'), ('0:00:49.740000', '0:01:09.800000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_164</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
-        </is>
+          <t>schubert-winterreise_152</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_176</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(48.001, 54.307)]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(43.34, 59.34)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:00:11', '0:01:06.820000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:10.100000', '0:01:03.440000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_61</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_133</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1168269230769231</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'E:min', 'A:min/C'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D', 'B:min', 'E:min'], ['D/3', 'G', 'D']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(11.4, 16.86), (18.12, 24.54)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(22.862248, 25.88757), (57.251357, 73.909779)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
